--- a/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-coverage.xlsx
@@ -713,7 +713,7 @@
     <t>Coverage.policyHolder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -747,7 +747,7 @@
     <t>Coverage.subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -787,7 +787,7 @@
     <t>Coverage.beneficiary</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -916,7 +916,7 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
